--- a/biology/Zoologie/Caracara_de_Guadalupe/Caracara_de_Guadalupe.xlsx
+++ b/biology/Zoologie/Caracara_de_Guadalupe/Caracara_de_Guadalupe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caracara lutosa
 Le Caracara de Guadalupe (Caracara lutosa) est une espèce éteinte d'oiseaux de la famille des Falconidae appartenant au groupe des rapaces diurnes. Cet oiseau était endémique de l'île Guadalupe au large du Mexique jusqu'au début du XXe siècle. Des spécimens sont exposés à Washington et à Londres.
